--- a/test/helper/weaning_data/weaning_data.xlsx
+++ b/test/helper/weaning_data/weaning_data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C44845-1323-4568-A3C9-704F33CBA083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhangyu/Documents/大學/實驗室/種豬資料庫/breeding_DB/test/helper/weaning_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99155DAB-E15A-4F4D-9C05-F458C0D24403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="離乳資料" sheetId="1" r:id="rId1"/>
@@ -18,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="207">
   <si>
     <t>生日年品種耳號</t>
   </si>
@@ -48,9 +42,6 @@
     <t>離乳數</t>
   </si>
   <si>
-    <t>離乳窩重(kg)</t>
-  </si>
-  <si>
     <t>問題</t>
   </si>
   <si>
@@ -174,12 +165,6 @@
     <t>負離乳</t>
   </si>
   <si>
-    <t>空窩重</t>
-  </si>
-  <si>
-    <t>負窩重</t>
-  </si>
-  <si>
     <t>分娩日期</t>
   </si>
   <si>
@@ -661,6 +646,10 @@
   </si>
   <si>
     <t>1017-3</t>
+  </si>
+  <si>
+    <t>胎號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -668,14 +657,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -702,7 +698,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1037,20 +1033,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F63" sqref="A62:F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,1117 +1061,911 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42760</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42871</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>43434</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>76.696797571638285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43620</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>35.244487489032949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>44350</v>
+        <v>42992</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>156.5712779550704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>45160</v>
+        <v>43068</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43068</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B13" s="1">
+        <v>43068</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43085</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43210</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43212</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>55.704805879746992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45348</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>65.643067686462956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" t="s">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43434</v>
+      </c>
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>43212</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43618</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43620</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>38.177278242484732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43461</v>
-      </c>
-      <c r="C8">
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>108.87407458045058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43618</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>137.38517603636964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43807</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>33.310355452698417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43996</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>74.737287251125849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44184</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>56.680506243894506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42871</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>54.966852500283139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B21" s="1">
         <v>43677</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>75.449488098183679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44223</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>95.047259993329192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44404</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>112.4076044089108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43893</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>101.3360347938512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44079</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44263</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>10.007431638237613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44453</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45547</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>84.95621459356704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43807</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44184</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
         <v>44271</v>
       </c>
-      <c r="C22">
+      <c r="C35">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>117.7873691828445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44340</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44404</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1">
         <v>44453</v>
       </c>
-      <c r="C23">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C40">
         <v>15</v>
       </c>
-      <c r="D23">
+      <c r="D40">
         <v>14</v>
       </c>
-      <c r="E23">
-        <v>128.28318600070537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
-        <v>45242</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>106.93745056959266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45432</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>49.482743337171364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="B41" s="1">
         <v>44652</v>
       </c>
-      <c r="C26">
+      <c r="C41">
         <v>6</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>50.150185057911294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45086</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>42.726614130302977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43085</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>139.99019330004802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43210</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>28.10655209686422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45257</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>130.85729042076548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45439</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42760</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>139.20334584009086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43770</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>21.524736006984725</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43959</v>
-      </c>
-      <c r="C34">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>112.26093574135285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1">
-        <v>44144</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>11.289327850198697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1">
-        <v>44201</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>55.891465863326196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45144</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44340</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>34.708514037666674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45888</v>
-      </c>
-      <c r="C39">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>112.24396939361856</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1">
-        <v>46076</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>22.60231765772734</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1">
-        <v>46257</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>49.171860683500064</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
       <c r="A42" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1">
-        <v>45899</v>
+        <v>44758</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>23.358005910845357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
       <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44947</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45086</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45160</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45242</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45348</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="1">
-        <v>44758</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>39.556141532916428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="1">
-        <v>44947</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>14</v>
-      </c>
-      <c r="E44">
-        <v>160.30510151702944</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="B50" s="1">
         <v>45425</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>9.8112118159236843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45609</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45432</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45439</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C53">
         <v>9</v>
-      </c>
-      <c r="E46">
-        <v>81.809949227780365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="1">
-        <v>43978</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>11.070359421277162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="1">
-        <v>42992</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>9.9762447055650423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="1">
-        <v>43972</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>34.767127649370636</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B50" s="1">
-        <v>43068</v>
-      </c>
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43068</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43068</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
-      <c r="E53">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
-        <v>43068</v>
+        <v>45609</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="55" spans="1:5" ht="16.5" customHeight="1">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1">
-        <v>43068</v>
+        <v>45888</v>
       </c>
       <c r="C55">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1">
-        <v>43068</v>
+        <v>45899</v>
       </c>
       <c r="C56">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
-        <v>43068</v>
+        <v>46076</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
-        <v>43068</v>
+        <v>46257</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>333</v>
-      </c>
-      <c r="E58">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1">
       <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43068</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59">
         <v>9</v>
       </c>
       <c r="D59">
-        <v>-1</v>
-      </c>
-      <c r="E59">
-        <v>97.417216781522654</v>
-      </c>
-      <c r="F59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="1">
-        <v>43068</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43068</v>
-      </c>
-      <c r="C61">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>9</v>
-      </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B63" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B61" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+    <sortCondition ref="B1:B61"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425D53E-2281-4ABD-95FF-7B7F50BE3E1C}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>43413</v>
@@ -2206,12 +1995,16 @@
         <v>4089</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L2">
+        <f ca="1">RANDBETWEEN(1000,2000)</f>
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>43599</v>
@@ -2241,12 +2034,16 @@
         <v>6820</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L50" ca="1" si="0">RANDBETWEEN(1000,2000)</f>
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>44329</v>
@@ -2276,12 +2073,16 @@
         <v>4820</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>45139</v>
@@ -2311,12 +2112,16 @@
         <v>8442</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>45327</v>
@@ -2346,12 +2151,16 @@
         <v>3309</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>43191</v>
@@ -2381,12 +2190,16 @@
         <v>10101</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>43440</v>
@@ -2416,12 +2229,16 @@
         <v>8127</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>43597</v>
@@ -2451,12 +2268,16 @@
         <v>9548</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>43786</v>
@@ -2486,12 +2307,16 @@
         <v>4756</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>43975</v>
@@ -2521,12 +2346,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>44163</v>
@@ -2556,12 +2385,16 @@
         <v>6995</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>42850</v>
@@ -2591,12 +2424,16 @@
         <v>6520</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>43656</v>
@@ -2626,12 +2463,16 @@
         <v>8292</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>44202</v>
@@ -2661,12 +2502,16 @@
         <v>8666</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>44383</v>
@@ -2696,12 +2541,16 @@
         <v>12177</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>43872</v>
@@ -2731,12 +2580,16 @@
         <v>6915</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>44058</v>
@@ -2766,12 +2619,16 @@
         <v>6690</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>44242</v>
@@ -2801,12 +2658,16 @@
         <v>9198</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>44432</v>
@@ -2836,12 +2697,16 @@
         <v>14399</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>45526</v>
@@ -2871,12 +2736,16 @@
         <v>8064</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1">
         <v>44250</v>
@@ -2906,12 +2775,16 @@
         <v>4400</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
         <v>44432</v>
@@ -2941,12 +2814,16 @@
         <v>10600</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>45221</v>
@@ -2976,12 +2853,16 @@
         <v>7095</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>45411</v>
@@ -3011,12 +2892,16 @@
         <v>13950</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>44631</v>
@@ -3046,12 +2931,16 @@
         <v>12770</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>45065</v>
@@ -3081,12 +2970,16 @@
         <v>14110</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <v>43064</v>
@@ -3116,12 +3009,16 @@
         <v>7068</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>43189</v>
@@ -3151,12 +3048,16 @@
         <v>2282</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>45236</v>
@@ -3186,12 +3087,16 @@
         <v>16476</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>45418</v>
@@ -3221,12 +3126,16 @@
         <v>5252</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>42739</v>
@@ -3256,12 +3165,16 @@
         <v>13662</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>43749</v>
@@ -3291,12 +3204,16 @@
         <v>8490</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="0"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>43938</v>
@@ -3326,12 +3243,16 @@
         <v>11144</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
         <v>44123</v>
@@ -3361,12 +3282,16 @@
         <v>4278</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1">
         <v>44180</v>
@@ -3396,12 +3321,16 @@
         <v>5096</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="0"/>
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1">
         <v>45123</v>
@@ -3431,12 +3360,16 @@
         <v>8505</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1">
         <v>44319</v>
@@ -3466,12 +3399,16 @@
         <v>2804</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="0"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1">
         <v>45867</v>
@@ -3501,12 +3438,16 @@
         <v>11860</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>46055</v>
@@ -3536,12 +3477,16 @@
         <v>4644</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>46236</v>
@@ -3571,12 +3516,16 @@
         <v>5845</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
         <v>45878</v>
@@ -3606,12 +3555,16 @@
         <v>3543</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
         <v>44737</v>
@@ -3641,12 +3594,16 @@
         <v>2226</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1">
         <v>44926</v>
@@ -3676,12 +3633,16 @@
         <v>4065</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="0"/>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>45404</v>
@@ -3711,12 +3672,16 @@
         <v>7050</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1">
         <v>45588</v>
@@ -3746,12 +3711,16 @@
         <v>5825</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1">
         <v>43957</v>
@@ -3781,12 +3750,16 @@
         <v>7000</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1">
         <v>42971</v>
@@ -3816,12 +3789,16 @@
         <v>2290</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <v>43951</v>
@@ -3851,12 +3828,16 @@
         <v>5896</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="0"/>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1">
         <v>43047</v>
@@ -3886,49 +3867,54 @@
         <v>13020</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="B63" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3942,12 +3928,12 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3955,36 +3941,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1">
         <v>43299</v>
@@ -3993,21 +3979,21 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1">
         <v>43485</v>
@@ -4016,21 +4002,21 @@
         <v>0.5</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>44215</v>
@@ -4039,21 +4025,21 @@
         <v>0.5</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
         <v>45025</v>
@@ -4062,21 +4048,21 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>45213</v>
@@ -4085,21 +4071,21 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>43077</v>
@@ -4108,21 +4094,21 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>43326</v>
@@ -4131,21 +4117,21 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>43483</v>
@@ -4154,21 +4140,21 @@
         <v>0.5</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
         <v>43672</v>
@@ -4177,21 +4163,21 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1">
         <v>43861</v>
@@ -4200,21 +4186,21 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
         <v>44049</v>
@@ -4223,21 +4209,21 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1">
         <v>42736</v>
@@ -4246,21 +4232,21 @@
         <v>0.5</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1">
         <v>43542</v>
@@ -4269,21 +4255,21 @@
         <v>0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
         <v>44088</v>
@@ -4292,21 +4278,21 @@
         <v>0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
         <v>44269</v>
@@ -4315,21 +4301,21 @@
         <v>0.5</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
         <v>43758</v>
@@ -4338,21 +4324,21 @@
         <v>0.5</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
         <v>43944</v>
@@ -4361,21 +4347,21 @@
         <v>0.5</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
         <v>44128</v>
@@ -4384,21 +4370,21 @@
         <v>0.5</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
         <v>44318</v>
@@ -4407,21 +4393,21 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
         <v>45412</v>
@@ -4430,21 +4416,21 @@
         <v>0.5</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>44136</v>
@@ -4453,21 +4439,21 @@
         <v>0.5</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1">
         <v>44318</v>
@@ -4476,21 +4462,21 @@
         <v>0.5</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1">
         <v>45107</v>
@@ -4499,21 +4485,21 @@
         <v>0.5</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
         <v>45297</v>
@@ -4522,21 +4508,21 @@
         <v>0.5</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
         <v>44517</v>
@@ -4545,21 +4531,21 @@
         <v>0.5</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1">
         <v>44951</v>
@@ -4568,21 +4554,21 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1">
         <v>42950</v>
@@ -4591,21 +4577,21 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>43075</v>
@@ -4614,21 +4600,21 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
         <v>45122</v>
@@ -4637,21 +4623,21 @@
         <v>0.5</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1">
         <v>45304</v>
@@ -4660,21 +4646,21 @@
         <v>0.5</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1">
         <v>42625</v>
@@ -4683,21 +4669,21 @@
         <v>0.5</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
         <v>43635</v>
@@ -4706,21 +4692,21 @@
         <v>0.5</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1">
         <v>43824</v>
@@ -4729,21 +4715,21 @@
         <v>0.5</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1">
         <v>44009</v>
@@ -4752,21 +4738,21 @@
         <v>0.5</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1">
         <v>44066</v>
@@ -4775,21 +4761,21 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1">
         <v>45009</v>
@@ -4798,21 +4784,21 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1">
         <v>44205</v>
@@ -4821,21 +4807,21 @@
         <v>0.5</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
         <v>45753</v>
@@ -4844,21 +4830,21 @@
         <v>0.5</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1">
         <v>45941</v>
@@ -4867,21 +4853,21 @@
         <v>0.5</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1">
         <v>46122</v>
@@ -4890,21 +4876,21 @@
         <v>0.5</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="1">
         <v>45764</v>
@@ -4913,21 +4899,21 @@
         <v>0.5</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>44623</v>
@@ -4936,21 +4922,21 @@
         <v>0.5</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1">
         <v>44812</v>
@@ -4959,21 +4945,21 @@
         <v>0.5</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1">
         <v>45290</v>
@@ -4982,21 +4968,21 @@
         <v>0.5</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1">
         <v>45474</v>
@@ -5005,21 +4991,21 @@
         <v>0.5</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1">
         <v>43843</v>
@@ -5028,21 +5014,21 @@
         <v>0.5</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1">
         <v>42857</v>
@@ -5051,21 +5037,21 @@
         <v>0.5</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1">
         <v>43837</v>
@@ -5074,21 +5060,21 @@
         <v>0.5</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1">
         <v>42933</v>
@@ -5097,21 +5083,21 @@
         <v>0.5</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1">
         <v>44291</v>
@@ -5120,10 +5106,10 @@
         <v>0.5</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5148,6 +5134,7 @@
       <c r="D58" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5160,43 +5147,43 @@
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
         <v>44832</v>
@@ -5205,7 +5192,7 @@
         <v>220815</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5213,10 +5200,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1">
         <v>45248</v>
@@ -5225,7 +5212,7 @@
         <v>114463</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -5233,10 +5220,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>43117</v>
@@ -5245,7 +5232,7 @@
         <v>571977</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5253,19 +5240,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>44774</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5273,19 +5260,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>45192</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5293,10 +5280,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
       </c>
       <c r="C7" s="1">
         <v>42478</v>
@@ -5305,7 +5292,7 @@
         <v>622282</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -5313,19 +5300,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <v>42972</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5333,10 +5320,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>42171</v>
@@ -5345,7 +5332,7 @@
         <v>546867</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5353,19 +5340,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1">
         <v>43264</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5373,19 +5360,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1">
         <v>45151</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -5393,10 +5380,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1">
         <v>44494</v>
@@ -5405,7 +5392,7 @@
         <v>695593</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5413,10 +5400,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1">
         <v>44193</v>
@@ -5425,7 +5412,7 @@
         <v>630400</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -5433,10 +5420,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1">
         <v>42177</v>
@@ -5445,7 +5432,7 @@
         <v>590433</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -5453,10 +5440,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1">
         <v>44338</v>
@@ -5465,7 +5452,7 @@
         <v>246174</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -5473,19 +5460,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1">
         <v>42646</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -5493,19 +5480,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1">
         <v>42378</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -5513,10 +5500,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1">
         <v>43824</v>
@@ -5525,7 +5512,7 @@
         <v>348752</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5533,10 +5520,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1">
         <v>42152</v>
@@ -5545,7 +5532,7 @@
         <v>984299</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5553,19 +5540,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1">
         <v>44746</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -5573,10 +5560,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1">
         <v>42497</v>
@@ -5585,7 +5572,7 @@
         <v>188631</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5593,10 +5580,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1">
         <v>43655</v>
@@ -5605,7 +5592,7 @@
         <v>190895</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -5613,10 +5600,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1">
         <v>44250</v>
@@ -5625,7 +5612,7 @@
         <v>454447</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5633,10 +5620,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1">
         <v>42692</v>
@@ -5645,7 +5632,7 @@
         <v>822190</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -5653,10 +5640,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1">
         <v>42243</v>
@@ -5665,7 +5652,7 @@
         <v>178181</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -5673,10 +5660,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>42329</v>
@@ -5685,7 +5672,7 @@
         <v>706220</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5693,19 +5680,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1">
         <v>45629</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -5713,10 +5700,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1">
         <v>42025</v>
@@ -5725,7 +5712,7 @@
         <v>859416</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5733,19 +5720,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1">
         <v>43233</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -5753,19 +5740,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1">
         <v>43078</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5773,19 +5760,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1">
         <v>42914</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5793,10 +5780,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1">
         <v>42579</v>
@@ -5805,7 +5792,7 @@
         <v>380112</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -5813,10 +5800,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1">
         <v>44054</v>
@@ -5825,7 +5812,7 @@
         <v>696875</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -5833,19 +5820,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" s="1">
         <v>42668</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -5853,10 +5840,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1">
         <v>42875</v>
@@ -5865,7 +5852,7 @@
         <v>193926</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -5873,19 +5860,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>44359</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5893,10 +5880,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C37" s="1">
         <v>42243</v>
@@ -5905,7 +5892,7 @@
         <v>425614</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -5913,19 +5900,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1">
         <v>45307</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -5933,10 +5920,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1">
         <v>44068</v>
@@ -5945,7 +5932,7 @@
         <v>977245</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -5953,10 +5940,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1">
         <v>44309</v>
@@ -5965,7 +5952,7 @@
         <v>216083</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5973,19 +5960,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1">
         <v>43412</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -5993,10 +5980,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1">
         <v>43541</v>
@@ -6005,7 +5992,7 @@
         <v>383030</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6013,19 +6000,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1">
         <v>42989</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -6033,19 +6020,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1">
         <v>43436</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -6053,10 +6040,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1">
         <v>44391</v>
@@ -6065,7 +6052,7 @@
         <v>439917</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -6073,10 +6060,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1">
         <v>45176</v>
@@ -6085,7 +6072,7 @@
         <v>748742</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -6093,19 +6080,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1">
         <v>42849</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -6113,19 +6100,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1">
         <v>43267</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -6133,10 +6120,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1">
         <v>44364</v>
@@ -6145,7 +6132,7 @@
         <v>367015</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -6153,19 +6140,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" s="1">
         <v>42936</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -6173,10 +6160,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1">
         <v>43117</v>
@@ -6185,7 +6172,7 @@
         <v>394947</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -6193,19 +6180,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1">
         <v>44027</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -6213,19 +6200,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1">
         <v>44835</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -6233,10 +6220,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" s="1">
         <v>43307</v>
@@ -6245,7 +6232,7 @@
         <v>907904</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6253,19 +6240,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1">
         <v>42892</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -6273,10 +6260,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1">
         <v>44100</v>
@@ -6285,7 +6272,7 @@
         <v>175887</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -6293,10 +6280,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" s="1">
         <v>43137</v>
@@ -6305,7 +6292,7 @@
         <v>763857</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -6313,10 +6300,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1">
         <v>43295</v>
@@ -6325,7 +6312,7 @@
         <v>117135</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6333,10 +6320,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" s="1">
         <v>42189</v>
@@ -6345,7 +6332,7 @@
         <v>168284</v>
       </c>
       <c r="G59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -6353,10 +6340,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C60" s="1">
         <v>43362</v>
@@ -6365,7 +6352,7 @@
         <v>926512</v>
       </c>
       <c r="G60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6373,19 +6360,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C61" s="1">
         <v>44003</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6393,10 +6380,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1">
         <v>45474</v>
@@ -6405,7 +6392,7 @@
         <v>886097</v>
       </c>
       <c r="G62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6413,19 +6400,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1">
         <v>43901</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6433,10 +6420,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C64" s="1">
         <v>43571</v>
@@ -6445,7 +6432,7 @@
         <v>686542</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6453,19 +6440,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C65" s="1">
         <v>45231</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6473,10 +6460,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1">
         <v>43948</v>
@@ -6485,7 +6472,7 @@
         <v>262269</v>
       </c>
       <c r="G66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6493,19 +6480,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C67" s="1">
         <v>44920</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6513,10 +6500,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" s="1">
         <v>44330</v>
@@ -6525,7 +6512,7 @@
         <v>849556</v>
       </c>
       <c r="G68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6533,19 +6520,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C69" s="1">
         <v>44768</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6553,19 +6540,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C70" s="1">
         <v>42160</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6573,19 +6560,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1">
         <v>42039</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6593,19 +6580,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C72" s="1">
         <v>44942</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6613,19 +6600,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1">
         <v>42437</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6633,10 +6620,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1">
         <v>43449</v>
@@ -6645,7 +6632,7 @@
         <v>456692</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -6653,10 +6640,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C75" s="1">
         <v>42558</v>
@@ -6665,7 +6652,7 @@
         <v>832744</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -6673,10 +6660,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1">
         <v>43885</v>
@@ -6685,7 +6672,7 @@
         <v>519896</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -6693,19 +6680,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1">
         <v>44828</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -6713,10 +6700,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C78" s="1">
         <v>43459</v>
@@ -6725,7 +6712,7 @@
         <v>123392</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -6733,10 +6720,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C79" s="1">
         <v>44021</v>
@@ -6745,7 +6732,7 @@
         <v>395889</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -6753,10 +6740,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C80" s="1">
         <v>45571</v>
@@ -6765,7 +6752,7 @@
         <v>144303</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -6773,10 +6760,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C81" s="1">
         <v>43014</v>
@@ -6785,7 +6772,7 @@
         <v>202198</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -6793,10 +6780,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82" s="1">
         <v>45582</v>
@@ -6805,7 +6792,7 @@
         <v>473939</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -6813,19 +6800,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" s="1">
         <v>44434</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -6833,10 +6820,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1">
         <v>45108</v>
@@ -6845,7 +6832,7 @@
         <v>227045</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -6853,19 +6840,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C85" s="1">
         <v>43662</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -6873,19 +6860,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C86" s="1">
         <v>44929</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -6893,10 +6880,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C87" s="1">
         <v>44181</v>
@@ -6905,7 +6892,7 @@
         <v>486842</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -6913,19 +6900,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C88" s="1">
         <v>44290</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -6933,19 +6920,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C89" s="1">
         <v>42668</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -6953,10 +6940,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C90" s="1">
         <v>43103</v>
@@ -6965,7 +6952,7 @@
         <v>872026</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -6973,10 +6960,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C91" s="1">
         <v>44685</v>
@@ -6985,7 +6972,7 @@
         <v>747829</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -6993,10 +6980,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C92" s="1">
         <v>42555</v>
@@ -7005,7 +6992,7 @@
         <v>560542</v>
       </c>
       <c r="G92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -7013,10 +7000,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C93" s="1">
         <v>43655</v>
@@ -7025,7 +7012,7 @@
         <v>732577</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -7033,19 +7020,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C94" s="1">
         <v>42202</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -7053,10 +7040,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C95" s="1">
         <v>42849</v>
@@ -7065,7 +7052,7 @@
         <v>271438</v>
       </c>
       <c r="G95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -7073,10 +7060,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C96" s="1">
         <v>44156</v>
@@ -7085,7 +7072,7 @@
         <v>362680</v>
       </c>
       <c r="G96" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -7093,19 +7080,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C97" s="1">
         <v>43319</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -7113,10 +7100,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C98" s="1">
         <v>42743</v>
@@ -7125,7 +7112,7 @@
         <v>499445</v>
       </c>
       <c r="G98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -7133,10 +7120,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C99" s="1">
         <v>44938</v>
@@ -7145,7 +7132,7 @@
         <v>355767</v>
       </c>
       <c r="G99" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -7153,19 +7140,19 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C100" s="1">
         <v>44106</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -7173,10 +7160,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C101" s="1">
         <v>42784</v>
@@ -7185,13 +7172,14 @@
         <v>820971</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/helper/weaning_data/weaning_data.xlsx
+++ b/test/helper/weaning_data/weaning_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCC2A11-A477-4468-8E7A-C55CAB49A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC49D040-34D0-426F-862F-4F6797833583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本資料" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
   <si>
     <t>品種</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>性別</t>
+  </si>
+  <si>
+    <t>出生胎次</t>
   </si>
   <si>
     <t>D</t>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C2AAE4-5F1C-48DA-8D34-A3CE6C8441ED}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -943,7 +946,7 @@
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,13 +971,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>44832</v>
@@ -983,18 +989,18 @@
         <v>220815</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>45248</v>
@@ -1003,18 +1009,18 @@
         <v>114463</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>43117</v>
@@ -1023,58 +1029,58 @@
         <v>571977</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>44774</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>45192</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>42478</v>
@@ -1083,38 +1089,38 @@
         <v>622282</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>42972</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>42171</v>
@@ -1123,58 +1129,58 @@
         <v>546867</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>43264</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>45151</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>44494</v>
@@ -1183,18 +1189,18 @@
         <v>695593</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>44193</v>
@@ -1203,18 +1209,18 @@
         <v>630400</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>42177</v>
@@ -1223,18 +1229,18 @@
         <v>590433</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>44338</v>
@@ -1243,27 +1249,27 @@
         <v>246174</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>42646</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1271,19 +1277,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>42378</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1291,10 +1297,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>43824</v>
@@ -1303,7 +1309,7 @@
         <v>348752</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1311,10 +1317,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>42152</v>
@@ -1323,7 +1329,7 @@
         <v>984299</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1331,19 +1337,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>44746</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1351,10 +1357,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>42497</v>
@@ -1363,7 +1369,7 @@
         <v>188631</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1371,10 +1377,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>43655</v>
@@ -1383,7 +1389,7 @@
         <v>190895</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1391,10 +1397,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>44250</v>
@@ -1403,7 +1409,7 @@
         <v>454447</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1411,10 +1417,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
         <v>42692</v>
@@ -1423,7 +1429,7 @@
         <v>822190</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1431,10 +1437,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
         <v>42243</v>
@@ -1443,7 +1449,7 @@
         <v>178181</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1451,10 +1457,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>42329</v>
@@ -1463,7 +1469,7 @@
         <v>706220</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
         <v>45629</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1491,10 +1497,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>42025</v>
@@ -1503,7 +1509,7 @@
         <v>859416</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>43233</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>43078</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1">
         <v>42914</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1571,10 +1577,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
         <v>42579</v>
@@ -1583,7 +1589,7 @@
         <v>380112</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1591,10 +1597,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1">
         <v>44054</v>
@@ -1603,7 +1609,7 @@
         <v>696875</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <v>42668</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1631,10 +1637,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1">
         <v>42875</v>
@@ -1643,7 +1649,7 @@
         <v>193926</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>44359</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1671,10 +1677,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>42243</v>
@@ -1683,7 +1689,7 @@
         <v>425614</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <v>45307</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1711,10 +1717,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
         <v>44068</v>
@@ -1723,7 +1729,7 @@
         <v>977245</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1731,10 +1737,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1">
         <v>44309</v>
@@ -1743,7 +1749,7 @@
         <v>216083</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1">
         <v>43412</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1771,10 +1777,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>43541</v>
@@ -1783,7 +1789,7 @@
         <v>383030</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>42989</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1">
         <v>43436</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1831,10 +1837,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1">
         <v>44391</v>
@@ -1843,7 +1849,7 @@
         <v>439917</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1851,10 +1857,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1">
         <v>45176</v>
@@ -1863,7 +1869,7 @@
         <v>748742</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1">
         <v>42849</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1">
         <v>43267</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1911,10 +1917,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1">
         <v>44364</v>
@@ -1923,7 +1929,7 @@
         <v>367015</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1">
         <v>42936</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1951,10 +1957,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1">
         <v>43117</v>
@@ -1963,7 +1969,7 @@
         <v>394947</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1">
         <v>44027</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1">
         <v>44835</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2011,10 +2017,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1">
         <v>43307</v>
@@ -2023,7 +2029,7 @@
         <v>907904</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1">
         <v>42892</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2051,10 +2057,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1">
         <v>44100</v>
@@ -2063,7 +2069,7 @@
         <v>175887</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2071,10 +2077,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1">
         <v>43137</v>
@@ -2083,7 +2089,7 @@
         <v>763857</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2091,10 +2097,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1">
         <v>43295</v>
@@ -2103,7 +2109,7 @@
         <v>117135</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -2111,10 +2117,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1">
         <v>42189</v>
@@ -2123,7 +2129,7 @@
         <v>168284</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2131,10 +2137,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1">
         <v>43362</v>
@@ -2143,7 +2149,7 @@
         <v>926512</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1">
         <v>44003</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -2171,10 +2177,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1">
         <v>45474</v>
@@ -2183,7 +2189,7 @@
         <v>886097</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1">
         <v>43901</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -2211,10 +2217,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1">
         <v>43571</v>
@@ -2223,7 +2229,7 @@
         <v>686542</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" s="1">
         <v>45231</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2251,10 +2257,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1">
         <v>43948</v>
@@ -2263,7 +2269,7 @@
         <v>262269</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1">
         <v>44920</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2291,10 +2297,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" s="1">
         <v>44330</v>
@@ -2303,7 +2309,7 @@
         <v>849556</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" s="1">
         <v>44768</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C70" s="1">
         <v>42160</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71" s="1">
         <v>42039</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1">
         <v>44942</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1">
         <v>42437</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -2411,10 +2417,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1">
         <v>43449</v>
@@ -2423,7 +2429,7 @@
         <v>456692</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2431,10 +2437,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C75" s="1">
         <v>42558</v>
@@ -2443,7 +2449,7 @@
         <v>832744</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -2451,10 +2457,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" s="1">
         <v>43885</v>
@@ -2463,7 +2469,7 @@
         <v>519896</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" s="1">
         <v>44828</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -2491,10 +2497,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" s="1">
         <v>43459</v>
@@ -2503,7 +2509,7 @@
         <v>123392</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -2511,10 +2517,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" s="1">
         <v>44021</v>
@@ -2523,7 +2529,7 @@
         <v>395889</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -2531,10 +2537,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1">
         <v>45571</v>
@@ -2543,7 +2549,7 @@
         <v>144303</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -2551,10 +2557,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1">
         <v>43014</v>
@@ -2563,7 +2569,7 @@
         <v>202198</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -2571,10 +2577,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="1">
         <v>45582</v>
@@ -2583,7 +2589,7 @@
         <v>473939</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" s="1">
         <v>44434</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -2611,10 +2617,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C84" s="1">
         <v>45108</v>
@@ -2623,7 +2629,7 @@
         <v>227045</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1">
         <v>43662</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="1">
         <v>44929</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -2671,10 +2677,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C87" s="1">
         <v>44181</v>
@@ -2683,7 +2689,7 @@
         <v>486842</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1">
         <v>44290</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1">
         <v>42668</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -2731,10 +2737,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1">
         <v>43103</v>
@@ -2743,7 +2749,7 @@
         <v>872026</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -2751,10 +2757,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1">
         <v>44685</v>
@@ -2763,7 +2769,7 @@
         <v>747829</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -2771,10 +2777,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1">
         <v>42555</v>
@@ -2783,7 +2789,7 @@
         <v>560542</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -2791,10 +2797,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="1">
         <v>43655</v>
@@ -2803,7 +2809,7 @@
         <v>732577</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1">
         <v>42202</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -2831,10 +2837,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C95" s="1">
         <v>42849</v>
@@ -2843,7 +2849,7 @@
         <v>271438</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -2851,10 +2857,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="1">
         <v>44156</v>
@@ -2863,7 +2869,7 @@
         <v>362680</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="1">
         <v>43319</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -2891,10 +2897,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1">
         <v>42743</v>
@@ -2903,7 +2909,7 @@
         <v>499445</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -2911,10 +2917,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" s="1">
         <v>44938</v>
@@ -2923,7 +2929,7 @@
         <v>355767</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C100" s="1">
         <v>44106</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -2951,10 +2957,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C101" s="1">
         <v>42784</v>
@@ -2963,7 +2969,7 @@
         <v>820971</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -2992,27 +2998,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3024,15 +3030,15 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3044,15 +3050,15 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3064,15 +3070,15 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3084,15 +3090,15 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3104,15 +3110,15 @@
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3124,15 +3130,15 @@
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3144,15 +3150,15 @@
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3164,15 +3170,15 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3184,15 +3190,15 @@
         <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3204,15 +3210,15 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -3224,15 +3230,15 @@
         <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3244,15 +3250,15 @@
         <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3264,15 +3270,15 @@
         <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3284,15 +3290,15 @@
         <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3304,15 +3310,15 @@
         <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3324,15 +3330,15 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3344,15 +3350,15 @@
         <v>0.5</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3364,15 +3370,15 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3384,15 +3390,15 @@
         <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3404,15 +3410,15 @@
         <v>0.5</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3424,15 +3430,15 @@
         <v>0.5</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3444,15 +3450,15 @@
         <v>0.5</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3464,15 +3470,15 @@
         <v>0.5</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3484,15 +3490,15 @@
         <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3504,15 +3510,15 @@
         <v>0.5</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3524,15 +3530,15 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3544,15 +3550,15 @@
         <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3564,15 +3570,15 @@
         <v>0.5</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3584,15 +3590,15 @@
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3604,15 +3610,15 @@
         <v>0.5</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3624,15 +3630,15 @@
         <v>0.5</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3644,15 +3650,15 @@
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3664,15 +3670,15 @@
         <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3684,15 +3690,15 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3704,15 +3710,15 @@
         <v>0.5</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3724,15 +3730,15 @@
         <v>0.5</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3744,15 +3750,15 @@
         <v>0.5</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3764,15 +3770,15 @@
         <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3784,15 +3790,15 @@
         <v>0.5</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3804,15 +3810,15 @@
         <v>0.5</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3824,15 +3830,15 @@
         <v>0.5</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3844,15 +3850,15 @@
         <v>0.5</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3864,15 +3870,15 @@
         <v>0.5</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3884,15 +3890,15 @@
         <v>0.5</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3904,15 +3910,15 @@
         <v>0.5</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3924,15 +3930,15 @@
         <v>0.5</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3944,15 +3950,15 @@
         <v>0.5</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3964,15 +3970,15 @@
         <v>0.5</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3984,15 +3990,15 @@
         <v>0.5</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4004,15 +4010,15 @@
         <v>0.5</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4024,15 +4030,15 @@
         <v>0.5</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4041,10 +4047,10 @@
         <v>44293</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4058,15 +4064,15 @@
         <v>0.5</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4078,15 +4084,15 @@
         <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4096,15 +4102,15 @@
         <v>0.5</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4116,15 +4122,15 @@
         <v>0.5</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4136,10 +4142,10 @@
         <v>0.5</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4165,39 +4171,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1">
         <v>43413</v>
@@ -4229,7 +4235,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
         <v>43599</v>
@@ -4261,7 +4267,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1">
         <v>44329</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1">
         <v>45139</v>
@@ -4325,7 +4331,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1">
         <v>45327</v>
@@ -4357,7 +4363,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1">
         <v>43191</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1">
         <v>43440</v>
@@ -4421,7 +4427,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1">
         <v>43597</v>
@@ -4453,7 +4459,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1">
         <v>43786</v>
@@ -4485,7 +4491,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1">
         <v>43975</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1">
         <v>44163</v>
@@ -4549,7 +4555,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1">
         <v>42850</v>
@@ -4581,7 +4587,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1">
         <v>43656</v>
@@ -4613,7 +4619,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1">
         <v>44202</v>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1">
         <v>44383</v>
@@ -4677,7 +4683,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1">
         <v>43872</v>
@@ -4709,7 +4715,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1">
         <v>44058</v>
@@ -4741,7 +4747,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1">
         <v>44242</v>
@@ -4773,7 +4779,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1">
         <v>44432</v>
@@ -4805,7 +4811,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1">
         <v>45526</v>
@@ -4837,7 +4843,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1">
         <v>44250</v>
@@ -4869,7 +4875,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1">
         <v>44432</v>
@@ -4901,7 +4907,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1">
         <v>45221</v>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="1">
         <v>45411</v>
@@ -4965,7 +4971,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1">
         <v>44631</v>
@@ -4997,7 +5003,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1">
         <v>45065</v>
@@ -5029,7 +5035,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
         <v>43064</v>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
         <v>43189</v>
@@ -5093,7 +5099,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="1">
         <v>45236</v>
@@ -5125,7 +5131,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1">
         <v>45418</v>
@@ -5157,7 +5163,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1">
         <v>42739</v>
@@ -5189,7 +5195,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1">
         <v>43749</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1">
         <v>43938</v>
@@ -5253,7 +5259,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1">
         <v>44123</v>
@@ -5285,7 +5291,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1">
         <v>44180</v>
@@ -5317,7 +5323,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1">
         <v>45123</v>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1">
         <v>44319</v>
@@ -5381,7 +5387,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1">
         <v>45867</v>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1">
         <v>46055</v>
@@ -5445,7 +5451,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1">
         <v>46236</v>
@@ -5477,7 +5483,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1">
         <v>45878</v>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1">
         <v>44737</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1">
         <v>44926</v>
@@ -5573,7 +5579,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1">
         <v>45404</v>
@@ -5605,7 +5611,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1">
         <v>45588</v>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1">
         <v>43957</v>
@@ -5669,7 +5675,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1">
         <v>42971</v>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="1">
         <v>43951</v>
@@ -5733,7 +5739,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1">
         <v>43047</v>
@@ -5811,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A60:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -5823,24 +5829,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1">
         <v>43434</v>
@@ -5854,7 +5860,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
         <v>43620</v>
@@ -5868,7 +5874,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1">
         <v>44350</v>
@@ -5882,7 +5888,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1">
         <v>45160</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1">
         <v>45348</v>
@@ -5910,7 +5916,7 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1">
         <v>43212</v>
@@ -5924,7 +5930,7 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1">
         <v>43461</v>
@@ -5938,7 +5944,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1">
         <v>43618</v>
@@ -5952,7 +5958,7 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1">
         <v>43807</v>
@@ -5966,7 +5972,7 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1">
         <v>43996</v>
@@ -5980,7 +5986,7 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1">
         <v>44184</v>
@@ -5994,7 +6000,7 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1">
         <v>42871</v>
@@ -6008,7 +6014,7 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1">
         <v>43677</v>
@@ -6022,7 +6028,7 @@
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1">
         <v>44223</v>
@@ -6036,7 +6042,7 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1">
         <v>44404</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1">
         <v>43893</v>
@@ -6064,7 +6070,7 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1">
         <v>44079</v>
@@ -6078,7 +6084,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1">
         <v>44263</v>
@@ -6092,7 +6098,7 @@
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1">
         <v>44453</v>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1">
         <v>45547</v>
@@ -6120,7 +6126,7 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1">
         <v>44271</v>
@@ -6134,7 +6140,7 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1">
         <v>44453</v>
@@ -6148,7 +6154,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1">
         <v>45242</v>
@@ -6162,7 +6168,7 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="1">
         <v>45432</v>
@@ -6176,7 +6182,7 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1">
         <v>44652</v>
@@ -6190,7 +6196,7 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1">
         <v>45086</v>
@@ -6204,7 +6210,7 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
         <v>43085</v>
@@ -6218,7 +6224,7 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
         <v>43210</v>
@@ -6232,7 +6238,7 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="1">
         <v>45257</v>
@@ -6246,7 +6252,7 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1">
         <v>45439</v>
@@ -6260,7 +6266,7 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1">
         <v>42760</v>
@@ -6274,7 +6280,7 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1">
         <v>43770</v>
@@ -6288,7 +6294,7 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1">
         <v>43959</v>
@@ -6302,7 +6308,7 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1">
         <v>44144</v>
@@ -6316,7 +6322,7 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1">
         <v>44201</v>
@@ -6330,7 +6336,7 @@
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1">
         <v>45144</v>
@@ -6344,7 +6350,7 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1">
         <v>44340</v>
@@ -6358,7 +6364,7 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1">
         <v>45888</v>
@@ -6372,7 +6378,7 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1">
         <v>46076</v>
@@ -6386,7 +6392,7 @@
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1">
         <v>46257</v>
@@ -6400,7 +6406,7 @@
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1">
         <v>45899</v>
@@ -6414,7 +6420,7 @@
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1">
         <v>44758</v>
@@ -6428,7 +6434,7 @@
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1">
         <v>44947</v>
@@ -6442,7 +6448,7 @@
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1">
         <v>45425</v>
@@ -6456,7 +6462,7 @@
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1">
         <v>45609</v>
@@ -6470,7 +6476,7 @@
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1">
         <v>43978</v>
@@ -6484,7 +6490,7 @@
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1">
         <v>42992</v>
@@ -6498,7 +6504,7 @@
     </row>
     <row r="49" spans="1:5" ht="16.5" customHeight="1">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="1">
         <v>43972</v>
@@ -6521,12 +6527,12 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" customHeight="1">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51">
@@ -6536,12 +6542,12 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1">
         <v>43068</v>
@@ -6553,12 +6559,12 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1">
         <v>43068</v>
@@ -6570,12 +6576,12 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1">
         <v>43068</v>
@@ -6584,12 +6590,12 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" customHeight="1">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" s="1">
         <v>43068</v>
@@ -6601,12 +6607,12 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1">
         <v>43068</v>
@@ -6618,12 +6624,12 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1">
         <v>43068</v>
@@ -6632,12 +6638,12 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="1">
         <v>43068</v>
@@ -6649,12 +6655,12 @@
         <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" s="1">
         <v>43068</v>
@@ -6666,7 +6672,7 @@
         <v>-1</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1">
